--- a/results/mod3.lreconBYhealth.eff.MN.xlsx
+++ b/results/mod3.lreconBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00272633313373113</v>
+        <v>-0.00272690206353083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0179146825774881</v>
+        <v>0.0179145635911502</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0378384657800751</v>
+        <v>-0.0378388015009378</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0323857995126128</v>
+        <v>0.0323849973738761</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.152184283586307</v>
+        <v>-0.152217052324843</v>
       </c>
       <c r="H2" t="n">
-        <v>0.879041589458155</v>
+        <v>0.879015744873365</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0451233997640474</v>
+        <v>0.0451248574660063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0373929129295758</v>
+        <v>0.0373925939213464</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0281653628549633</v>
+        <v>-0.0281632799083641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.118412162383058</v>
+        <v>0.118412994840377</v>
       </c>
       <c r="G3" t="n">
-        <v>1.20673668427573</v>
+        <v>1.20678596304189</v>
       </c>
       <c r="H3" t="n">
-        <v>0.227533566662531</v>
+        <v>0.227514583251716</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0214463934327575</v>
+        <v>-0.0214469336364874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0148089872376587</v>
+        <v>0.0148088911156693</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0504714750660819</v>
+        <v>-0.0504718268741744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00757868820056684</v>
+        <v>0.00757795960119953</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.44820122325584</v>
+        <v>-1.44824710162089</v>
       </c>
       <c r="H4" t="n">
-        <v>0.147560782592843</v>
+        <v>0.147547955934459</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0209506731975588</v>
+        <v>-0.020951021765988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0136790341210904</v>
+        <v>0.0136789257033194</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0477610874181905</v>
+        <v>-0.0477612234916933</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00585974102307294</v>
+        <v>0.00585917995971727</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.53159009708565</v>
+        <v>-1.53162771846212</v>
       </c>
       <c r="H5" t="n">
-        <v>0.125623617775696</v>
+        <v>0.125614328429842</v>
       </c>
     </row>
   </sheetData>
